--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -1,43 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\phobooth\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EE68C8-DA0E-4D90-8E99-6545E2792E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_service" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="add_service" sheetId="1" r:id="rId1"/>
+    <sheet name="sign_up" sheetId="2" r:id="rId2"/>
+    <sheet name="create_order" sheetId="3" r:id="rId3"/>
+    <sheet name="accept_order" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>min_price</t>
+  </si>
+  <si>
+    <t>max_price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>ảnh gia đình</t>
+  </si>
+  <si>
+    <t>Dịch vụ chính</t>
+  </si>
+  <si>
+    <t>anh-1.png;anh-2.jpg;anh-3.jpg;anh-4.jpg</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>min_price:Giá trị không hợp lệ!</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>anh-1.png</t>
+  </si>
+  <si>
+    <t>image:required</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>40;41</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: element click intercepted: Element &lt;button class="MuiButtonBase-root MuiIconButton-root MuiIconButton-sizeMedium css-78trlr-MuiButtonBase-root-MuiIconButton-root" tabindex="0" type="button"&gt;...&lt;/button&gt; is not clickable at point (635, 366). Other element would receive the click: &lt;ul class="MuiList-root MuiList-padding css-za1ukf-MuiList-root"&gt;...&lt;/ul&gt;
+  (Session info: MicrosoftEdge=124.0.2478.67)
+Stacktrace:
+	GetHandleVerifier [0x00007FF726EAD8E2+35890]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E6ACC2+1330002]
+	Microsoft::Applications::Events::ILogManager::operator= [0x00007FF726C5E137+5095]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CAB3E5+185909]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CA9648+178328]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CA7357+169383]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CA672D+166269]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C9ACDC+118572]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CC470A+289114]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C9A6C7+117015]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C9A58D+116701]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CC49F0+289856]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C9A6C7+117015]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CDDAF1+392513]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726CC4373+288195]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C99BEE+114238]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C98DAC+110588]
+	Microsoft::Applications::Events::GUID_t::GUID_t [0x00007FF726C997A1+113137]
+	GetHandleVerifier [0x00007FF726F439F4+650564]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726D399BC+79948]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E12D4C+969692]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E0B485+938773]
+	GetHandleVerifier [0x00007FF726F429B5+646405]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E72E81+1363217]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E6E4F4+1344388]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E6E62B+1344699]
+	Microsoft::Applications::Events::FromJSON [0x00007FF726E65B21+1309105]
+	BaseThreadInitThunk [0x00007FFAC7EC7614+20]
+	RtlUserThreadStart [0x00007FFAC9C426F1+33]
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +196,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,202 +538,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-1000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>min_price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>max_price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>expect</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ảnh gia đình</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dịch vụ chính</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>anh-1.png;anh-2.jpg;anh-3.jpg;anh-4.jpg</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>name2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ảnh gia đình</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dịch vụ chính</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>anh-1.png;anh-2.jpg;anh-3.jpg;anh-4.jpg</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>min_price:Giá trị không hợp lệ!</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>name3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ảnh gia đình</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dịch vụ chính</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>anh-1.png</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>image:required</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_service" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sign_up" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sign_in" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_studio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="create_order" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accept_order" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_order_item" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_payment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="payment" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="complete_order" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="add_service" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sign_up" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sign_in" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="add_studio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="create_order" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="accept_order" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="add_order_item" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="add_payment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="payment" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="complete_order" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -27,7 +27,7 @@
   <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -44,8 +44,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -61,12 +60,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -118,15 +132,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -498,52 +512,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>min_price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>max_price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1014,22 +1028,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1051,6 +1065,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1068,6 +1083,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1131,7 +1147,6 @@
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>email@email.com</t>
@@ -1152,10 +1167,8 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>username123</t>
@@ -1181,7 +1194,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1194,7 +1206,6 @@
           <t>username123</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>password</t>
@@ -1210,7 +1221,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1243,7 +1253,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1261,7 +1270,6 @@
           <t>email@email.com</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>password:required</t>
@@ -1272,7 +1280,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1305,7 +1312,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1338,7 +1344,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1371,7 +1376,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1404,7 +1408,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1420,13 +1423,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.69921875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="15.8984375" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20.59765625" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1541,72 +1545,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>friendly_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>code_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>province</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>district</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>street</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>avatar</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -2700,58 +2704,58 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>province</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>district</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>street</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -2918,37 +2922,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3070,42 +3074,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3208,7 +3212,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3316,32 +3320,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>expiration_date</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3551,52 +3555,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>payment</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>bank</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>card_number</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>card_holder</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>card_date</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>otp</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>error</t>
         </is>

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_service" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -34,12 +34,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -60,27 +55,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -123,7 +103,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -131,11 +112,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -512,52 +489,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>min_price</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>max_price</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>image</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1028,22 +1005,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1065,7 +1042,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1083,7 +1059,6 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1105,37 +1080,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>fullname</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -1428,9 +1403,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.69921875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.8984375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20.59765625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.69921875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15.8984375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.59765625" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1545,72 +1520,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>friendly_name</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>code_name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>province</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>district</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>street</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>avatar</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -2710,52 +2685,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>province</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>district</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>street</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -2922,37 +2897,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3074,42 +3049,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>item</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3151,6 +3126,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3168,11 +3144,7 @@
           <t>Dịch vụ</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>50000</t>
@@ -3188,6 +3160,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3210,11 +3183,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>price:invalid</t>
@@ -3225,6 +3194,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3262,6 +3232,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3299,6 +3270,7 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3320,32 +3292,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>expiration_date</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -3555,52 +3527,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>payment</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>bank</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>card_number</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>card_holder</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>card_date</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>otp</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>error</t>
         </is>
